--- a/data.xlsx
+++ b/data.xlsx
@@ -572,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1132,7 +1132,7 @@
         <v>70</v>
       </c>
       <c r="N10" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="5">

--- a/data.xlsx
+++ b/data.xlsx
@@ -584,7 +584,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,7 +596,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1168" sqref="A13:XFD1168"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1144,7 +1144,7 @@
         <v>70</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>Печать</t>
   </si>
@@ -189,22 +189,38 @@
     <t>Брусилова Екатерина</t>
   </si>
   <si>
-    <t>+79109226336</t>
-  </si>
-  <si>
     <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>0559090688</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,8 +269,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -266,17 +282,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,9 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -677,7 +699,7 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -733,7 +755,7 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -785,7 +807,7 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -837,7 +859,7 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -893,7 +915,7 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -949,7 +971,7 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1003,7 +1025,7 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1055,7 +1077,7 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1107,7 +1129,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1161,7 +1183,7 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1215,7 +1237,7 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1275,32 +1297,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8">
+        <v>996559090687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7">
+        <v>79109226332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7">
+        <v>79109226333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7">
+        <v>79109226336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7">
+        <v>79109226335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7">
+        <v>79109226337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7">
+        <v>79109226338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
